--- a/rawdata/Arthropod_data.xlsx
+++ b/rawdata/Arthropod_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei-Ting\Dropbox\PhD_writing\paper3_diversity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei-Ting\Dropbox\PhD_projects\iva_latitude\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="292">
   <si>
     <t>order</t>
   </si>
@@ -1034,6 +1034,22 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axon_to_guild</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1170,7 +1186,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,6 +1230,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -7381,10 +7398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7398,7 +7415,7 @@
     <col min="11" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>89</v>
       </c>
@@ -7429,8 +7446,11 @@
       <c r="J1" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>38</v>
       </c>
@@ -7457,8 +7477,11 @@
       <c r="J2" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>45</v>
       </c>
@@ -7485,8 +7508,11 @@
       <c r="J3" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>82</v>
       </c>
@@ -7509,8 +7535,11 @@
       <c r="J4" s="13" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>142</v>
       </c>
@@ -7535,8 +7564,11 @@
       <c r="J5" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>112</v>
       </c>
@@ -7563,7 +7595,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>65</v>
       </c>
@@ -7590,7 +7622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>168</v>
       </c>
@@ -7617,7 +7649,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>165</v>
       </c>
@@ -7644,7 +7676,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>123</v>
       </c>
@@ -7672,7 +7704,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>146</v>
       </c>
@@ -7697,7 +7729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>155</v>
       </c>
@@ -7722,7 +7754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>162</v>
       </c>
@@ -7747,7 +7779,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>138</v>
       </c>
@@ -7772,7 +7804,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>53</v>
       </c>
@@ -7797,7 +7829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>136</v>
       </c>
@@ -12063,5 +12095,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>